--- a/excel/Data Siswa.xlsx
+++ b/excel/Data Siswa.xlsx
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
